--- a/data/grid_data.xlsx
+++ b/data/grid_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frede\Documents\DTU\2024\Renewables in Electricity Markets\renew-in-elec-markets\Assignment 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frede\Documents\DTU\2024\MSc 3. semester\Optimization in Modern Power Systems\optimization_46750\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250253B8-FCE8-4EFB-AFA1-434ED3B09DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECEBBC6-3495-4893-90A6-1322B2E4A118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gen_technical" sheetId="1" r:id="rId1"/>
@@ -51,6 +51,42 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Frederik Fertin</author>
+  </authors>
+  <commentList>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{E9AAA584-D049-454C-9454-66F35026FA46}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Frederik Fertin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Technical data:
+The coal power plant would have used coal with a heating value of 25.25 GJ per ton of coal and a CO2 emission factor of 800kg CO2 per MWh of coal. The efficiency of the coal power plants is assumed to be 40%.
+The gas power plant would have used gas with a heating value of 39.51 GJ per ton of gas and a CO2 emission factor of 400kg CO2 per MWh of gas. The efficiency of the gas power plants is assumed to be 50%</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
@@ -110,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="130">
   <si>
     <t>Node</t>
   </si>
@@ -494,13 +530,19 @@
   </si>
   <si>
     <t>bid_price</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>EF [tCO2/MWh]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,6 +554,19 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1251,16 +1306,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3A68B1-57DE-45FB-9142-3534A5100D62}">
-  <dimension ref="A1:J13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3A68B1-57DE-45FB-9142-3534A5100D62}">
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
@@ -1291,8 +1346,14 @@
       <c r="J1" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1324,7 +1385,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1356,7 +1417,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1388,7 +1449,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1420,7 +1481,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1452,7 +1513,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1484,7 +1545,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1516,7 +1577,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1547,8 +1608,11 @@
       <c r="J9" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1579,8 +1643,11 @@
       <c r="J10" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1611,8 +1678,11 @@
       <c r="J11" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1644,7 +1714,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1678,6 +1748,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2749,8 +2820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63BB4DA-7026-4DB7-9B24-BE42F9A5634C}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/grid_data.xlsx
+++ b/data/grid_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frede\Documents\DTU\2024\MSc 3. semester\Optimization in Modern Power Systems\optimization_46750\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECEBBC6-3495-4893-90A6-1322B2E4A118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0BF8DD-3E8F-49D1-926F-AE7796993D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gen_technical" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
           <t xml:space="preserve">
 Technical data:
 The coal power plant would have used coal with a heating value of 25.25 GJ per ton of coal and a CO2 emission factor of 800kg CO2 per MWh of coal. The efficiency of the coal power plants is assumed to be 40%.
-The gas power plant would have used gas with a heating value of 39.51 GJ per ton of gas and a CO2 emission factor of 400kg CO2 per MWh of gas. The efficiency of the gas power plants is assumed to be 50%</t>
+The gas power plant would have used gas with a heating value of 39.51 GJ per ton of gas and a CO2 emission factor of 400kg CO2 per MWh of gas. The efficiency of the gas power plants is assumed to be 50%.</t>
         </r>
       </text>
     </comment>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="135">
   <si>
     <t>Node</t>
   </si>
@@ -532,10 +532,25 @@
     <t>bid_price</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>EF [tCO2/MWh]</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Nuclear</t>
+  </si>
+  <si>
+    <t>Geothermal</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>Assumed Type of Generation</t>
   </si>
 </sst>
 </file>
@@ -1309,8 +1324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3A68B1-57DE-45FB-9142-3534A5100D62}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1347,10 +1362,10 @@
         <v>118</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1384,6 +1399,12 @@
       <c r="J2" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="K2">
+        <v>0.8</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -1416,6 +1437,12 @@
       <c r="J3" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="K3">
+        <v>0.8</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -1448,6 +1475,12 @@
       <c r="J4" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="K4">
+        <v>0.4</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -1480,6 +1513,12 @@
       <c r="J5" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="K5">
+        <v>0.4</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -1512,6 +1551,12 @@
       <c r="J6" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="K6">
+        <v>0.6</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -1544,6 +1589,12 @@
       <c r="J7" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="K7">
+        <v>0.8</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -1576,6 +1627,12 @@
       <c r="J8" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="K8">
+        <v>0.8</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -1611,6 +1668,9 @@
       <c r="K9">
         <v>0</v>
       </c>
+      <c r="L9" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -1646,6 +1706,9 @@
       <c r="K10">
         <v>0</v>
       </c>
+      <c r="L10" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -1681,6 +1744,9 @@
       <c r="K11">
         <v>0</v>
       </c>
+      <c r="L11" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -1713,6 +1779,12 @@
       <c r="J12" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="K12">
+        <v>0.8</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -1744,6 +1816,12 @@
       </c>
       <c r="J13" s="1" t="s">
         <v>74</v>
+      </c>
+      <c r="K13">
+        <v>0.8</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2820,8 +2898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63BB4DA-7026-4DB7-9B24-BE42F9A5634C}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2856,7 +2934,7 @@
         <v>3.8000000000000003</v>
       </c>
       <c r="D2" s="1">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2870,7 +2948,7 @@
         <v>3.4000000000000004</v>
       </c>
       <c r="D3" s="1">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2884,7 +2962,7 @@
         <v>6.3000000000000007</v>
       </c>
       <c r="D4" s="1">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2898,7 +2976,7 @@
         <v>2.6</v>
       </c>
       <c r="D5" s="1">
-        <v>40</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2912,7 +2990,7 @@
         <v>2.5</v>
       </c>
       <c r="D6" s="1">
-        <v>40</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -2926,7 +3004,7 @@
         <v>4.8000000000000007</v>
       </c>
       <c r="D7" s="1">
-        <v>40</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -2940,7 +3018,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="D8" s="1">
-        <v>40</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -2954,7 +3032,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="1">
-        <v>40</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -2968,7 +3046,7 @@
         <v>6.1000000000000005</v>
       </c>
       <c r="D10" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -2984,7 +3062,7 @@
         <v>6.8000000000000007</v>
       </c>
       <c r="D11" s="1">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -2998,7 +3076,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="D12" s="1">
-        <v>40</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -3012,7 +3090,7 @@
         <v>6.8000000000000007</v>
       </c>
       <c r="D13" s="1">
-        <v>40</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -3026,7 +3104,7 @@
         <v>11.100000000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -3040,7 +3118,7 @@
         <v>3.5</v>
       </c>
       <c r="D15" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -3054,7 +3132,7 @@
         <v>11.700000000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -3068,7 +3146,7 @@
         <v>6.4</v>
       </c>
       <c r="D17" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -3082,7 +3160,7 @@
         <v>4.5</v>
       </c>
       <c r="D18" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/data/grid_data.xlsx
+++ b/data/grid_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frede\Documents\DTU\2024\MSc 3. semester\Optimization in Modern Power Systems\optimization_46750\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0BF8DD-3E8F-49D1-926F-AE7796993D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE356F2-1C6E-431A-A197-84349FB9D45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gen_technical" sheetId="1" r:id="rId1"/>
@@ -544,13 +544,13 @@
     <t>Nuclear</t>
   </si>
   <si>
-    <t>Geothermal</t>
-  </si>
-  <si>
     <t>Oil</t>
   </si>
   <si>
     <t>Assumed Type of Generation</t>
+  </si>
+  <si>
+    <t>Hydro</t>
   </si>
 </sst>
 </file>
@@ -1324,8 +1324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3A68B1-57DE-45FB-9142-3534A5100D62}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1365,7 +1365,7 @@
         <v>128</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1555,7 +1555,7 @@
         <v>0.6</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -2898,8 +2898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63BB4DA-7026-4DB7-9B24-BE42F9A5634C}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2934,7 +2934,7 @@
         <v>3.8000000000000003</v>
       </c>
       <c r="D2" s="1">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2948,7 +2948,7 @@
         <v>3.4000000000000004</v>
       </c>
       <c r="D3" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2962,7 +2962,7 @@
         <v>6.3000000000000007</v>
       </c>
       <c r="D4" s="1">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2976,7 +2976,7 @@
         <v>2.6</v>
       </c>
       <c r="D5" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2990,7 +2990,7 @@
         <v>2.5</v>
       </c>
       <c r="D6" s="1">
-        <v>200</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -3004,7 +3004,7 @@
         <v>4.8000000000000007</v>
       </c>
       <c r="D7" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -3018,7 +3018,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="D8" s="1">
-        <v>150</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -3032,7 +3032,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="1">
-        <v>150</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -3076,7 +3076,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="D12" s="1">
-        <v>150</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -3090,7 +3090,7 @@
         <v>6.8000000000000007</v>
       </c>
       <c r="D13" s="1">
-        <v>150</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -3104,7 +3104,7 @@
         <v>11.100000000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -3132,7 +3132,7 @@
         <v>11.700000000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -3146,7 +3146,7 @@
         <v>6.4</v>
       </c>
       <c r="D17" s="1">
-        <v>100</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -3160,7 +3160,7 @@
         <v>4.5</v>
       </c>
       <c r="D18" s="1">
-        <v>100</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
